--- a/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
+++ b/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91900\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED086A35-7B1C-44D9-8501-5399D9C1B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EF495-B2B7-402B-BB8F-9FE32600FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>Department_Name</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A118B8-7CAB-4008-8377-485D8386FE09}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1514,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>127</v>
       </c>
@@ -1518,33 +1524,39 @@
       <c r="C1" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>44796</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>44767</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>9286475762</v>
       </c>

--- a/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
+++ b/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91900\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EF495-B2B7-402B-BB8F-9FE32600FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68BECFD-F1C5-476B-9343-5FC220EC9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee_Data" sheetId="1" r:id="rId1"/>
     <sheet name="girigiri" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="179">
   <si>
     <t>Department_Name</t>
   </si>
@@ -431,13 +432,145 @@
   </si>
   <si>
     <t>TC5</t>
+  </si>
+  <si>
+    <t>Reason For Leave</t>
+  </si>
+  <si>
+    <t>Not Well Suffering from high Fever</t>
+  </si>
+  <si>
+    <t>FromLeaveDate</t>
+  </si>
+  <si>
+    <t>ToLeaveDate</t>
+  </si>
+  <si>
+    <t>Contact Address Durning Leave</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Leave Type</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>I am Going for Marriage</t>
+  </si>
+  <si>
+    <t>16-08-2022</t>
+  </si>
+  <si>
+    <t>22-08-2022</t>
+  </si>
+  <si>
+    <t>25-08-2022</t>
+  </si>
+  <si>
+    <t>Earn Leave</t>
+  </si>
+  <si>
+    <t>Maternity Leave</t>
+  </si>
+  <si>
+    <t>Paternity Leave</t>
+  </si>
+  <si>
+    <t>Bereavement Leave</t>
+  </si>
+  <si>
+    <t>Sabbatical Leave</t>
+  </si>
+  <si>
+    <t>Unpaid Leave</t>
+  </si>
+  <si>
+    <t>01-09-2022</t>
+  </si>
+  <si>
+    <t>11-09-2022</t>
+  </si>
+  <si>
+    <t>05-09-2022</t>
+  </si>
+  <si>
+    <t>Gng to Famliy Function</t>
+  </si>
+  <si>
+    <t>01-08-2022</t>
+  </si>
+  <si>
+    <t>10-08-2022</t>
+  </si>
+  <si>
+    <t>09-08-2022</t>
+  </si>
+  <si>
+    <t>02-07-2022</t>
+  </si>
+  <si>
+    <t>02-08-2022</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>15-08-2022</t>
+  </si>
+  <si>
+    <t>30-08-2022</t>
+  </si>
+  <si>
+    <t>Maternity leave</t>
+  </si>
+  <si>
+    <t>One of my close Frnd Expire</t>
+  </si>
+  <si>
+    <t>I am gng to Study Abroad</t>
+  </si>
+  <si>
+    <t>7418552963</t>
+  </si>
+  <si>
+    <t>9874563201</t>
+  </si>
+  <si>
+    <t>9874956321</t>
+  </si>
+  <si>
+    <t>8523869741</t>
+  </si>
+  <si>
+    <t>9875244630</t>
+  </si>
+  <si>
+    <t>1236547890</t>
+  </si>
+  <si>
+    <t>9635258741</t>
+  </si>
+  <si>
+    <t>8796541563</t>
+  </si>
+  <si>
+    <t>9916785433</t>
+  </si>
+  <si>
+    <t>8123654879</t>
+  </si>
+  <si>
+    <t>9874812356</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +603,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -532,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,9 +680,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,6 +711,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,6 +729,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA55513-ADA3-040F-57C2-871BCBF4BC9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,33 +1052,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="29.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
     <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -914,7 +1117,7 @@
       <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -926,559 +1129,721 @@
       <c r="O1" s="1">
         <v>14</v>
       </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>35709</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="5">
-        <v>9874563201</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="P3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1234567890</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>34978</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="5">
-        <v>7418552963</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="L4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="P4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" s="15">
+        <v>9988598516</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>33729</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="5">
-        <v>9635258741</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="P5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1484678965</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>35407</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="5">
-        <v>9874956321</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="P6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="S6" s="15">
+        <v>4567893210</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="5">
-        <v>8523869741</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="P7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1236547896</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>34425</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5">
-        <v>9875244630</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="P8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="15">
+        <v>9886068022</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>34281</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="5">
-        <v>1236547890</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="P9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="15">
+        <v>9886774662</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>34520</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="5">
-        <v>8796541563</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>34822</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="5">
-        <v>9916785433</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="15">
+        <v>8123068022</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>34794</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="5">
-        <v>8123654879</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="L12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>33299</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="5">
-        <v>9874812356</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="L13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1498,6 +1863,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId16" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId16" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -1505,23 +1899,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A118B8-7CAB-4008-8377-485D8386FE09}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D1" t="s">
@@ -1531,33 +1925,33 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>44796</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>44767</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>9286475762</v>
       </c>
     </row>

--- a/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
+++ b/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91900\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EF495-B2B7-402B-BB8F-9FE32600FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B16F09-FC50-4022-91C0-A3E4E893AC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>Department_Name</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>TC5</t>
+  </si>
+  <si>
+    <t>25102022</t>
+  </si>
+  <si>
+    <t>20102022</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,7 +577,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1506,7 +1511,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,13 +1520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D1" t="s">
@@ -1532,7 +1537,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1547,17 +1552,17 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>44796</v>
+      <c r="A5" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>44767</v>
+      <c r="A6" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>9286475762</v>
       </c>
     </row>

--- a/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
+++ b/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68BECFD-F1C5-476B-9343-5FC220EC9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Employee_Data" sheetId="1" r:id="rId1"/>
     <sheet name="girigiri" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="I1:O19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="196">
   <si>
     <t>Department_Name</t>
   </si>
@@ -564,12 +558,63 @@
   </si>
   <si>
     <t>9874812356</t>
+  </si>
+  <si>
+    <t>Department name dropdownliast</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Test Team</t>
+  </si>
+  <si>
+    <t>nith</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Sr. HR</t>
+  </si>
+  <si>
+    <t>Jr. HR</t>
+  </si>
+  <si>
+    <t>Sr. Business Analyst</t>
+  </si>
+  <si>
+    <t>Jr. Business Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -666,12 +711,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,6 +769,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,16 +803,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>1870822</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>188819</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>207309</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>36419</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1052,12 +1114,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,9 +1143,10 @@
     <col min="18" max="18" width="18.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="28.28515625" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>0</v>
       </c>
@@ -1144,8 +1207,11 @@
       <c r="T1" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U1" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1206,8 +1272,11 @@
       <c r="T2" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U2" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1268,8 +1337,11 @@
       <c r="T3" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1330,8 +1402,11 @@
       <c r="T4" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1390,8 +1465,11 @@
       <c r="T5" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1452,8 +1530,11 @@
       <c r="T6" s="15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1512,8 +1593,11 @@
       <c r="T7" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1574,8 +1658,11 @@
       <c r="T8" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1634,8 +1721,11 @@
       <c r="T9" s="18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="R10" s="17"/>
       <c r="S10" s="15"/>
       <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1744,8 +1837,11 @@
       <c r="T11" s="18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1794,8 +1890,11 @@
       <c r="R12" s="17"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1844,22 +1943,80 @@
       <c r="R13" s="17"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
+      <c r="U13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{5E205C29-2FF6-4C04-AB03-C359B216113B}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{5180B200-1791-472C-9D2B-EB58BEBC50BC}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{37C16055-A5A2-49FF-AAB5-F74E3C28B9EE}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{10710712-9B53-4464-867D-CA79CABD1E42}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{1EB1D93E-7E1E-4758-8D4A-5EC2AF1A975F}"/>
-    <hyperlink ref="F7" r:id="rId6" display="giri@123" xr:uid="{C657E01D-763B-40AE-82FB-D06C10FA34BF}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{6C53D2F0-6D1A-4597-8FBB-86B7BD1C0B8D}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{E86FC645-3548-4252-BE24-7848C80F8A0D}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{BB3F282A-46C0-4726-BB3D-A744123395C8}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{7BAAE97D-791E-4AC7-91AC-983AFF166E24}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{65EAFCFB-A756-4BB7-8C3D-94FB1393D73F}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{BF878F26-1999-41CF-94BA-565B2827AD60}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6" display="giri@123"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1872,16 +2029,16 @@
           <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>1866900</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -1896,10 +2053,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A118B8-7CAB-4008-8377-485D8386FE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
+++ b/com.OnlineLeaveApplication.framework.SDET37/src/test/resources/OlmEmployeeData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\OnlineLeaveApplication\com.OnlineLeaveApplication.framework.SDET37\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68BECFD-F1C5-476B-9343-5FC220EC9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F838FE-ED1D-4DD2-9190-210D22CEBC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="girigiri" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -741,16 +740,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>1880347</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>188819</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>26894</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -760,7 +759,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA55513-ADA3-040F-57C2-871BCBF4BC9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1056,8 +1055,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,16 +1871,16 @@
           <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>1876425</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
